--- a/data/trans_dic/P9_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Estudios-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que dejo de hacer algunas tareas por problemas físicos</t>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,94</t>
+          <t>13,47; 17,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,44; 26,54</t>
+          <t>20,53; 26,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 23,4</t>
+          <t>17,71; 23,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,56; 31,56</t>
+          <t>24,7; 31,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 25,81</t>
+          <t>20,97; 25,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,28</t>
+          <t>32,71; 38,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,66; 37,89</t>
+          <t>31,82; 38,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,0; 45,76</t>
+          <t>39,85; 45,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,5</t>
+          <t>18,36; 21,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,3; 32,34</t>
+          <t>28,43; 32,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 30,85</t>
+          <t>26,73; 31,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 39,15</t>
+          <t>34,67; 39,35</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,1</t>
+          <t>4,0; 6,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,3</t>
+          <t>5,13; 7,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,5</t>
+          <t>5,29; 7,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,2</t>
+          <t>9,36; 12,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 10,71</t>
+          <t>7,82; 10,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,05</t>
+          <t>9,74; 12,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,06</t>
+          <t>10,0; 13,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 15,17</t>
+          <t>11,28; 15,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,91</t>
+          <t>6,13; 7,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,67</t>
+          <t>7,64; 9,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 9,73</t>
+          <t>7,89; 9,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 13,25</t>
+          <t>10,96; 13,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,35</t>
+          <t>2,68; 6,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,87</t>
+          <t>3,83; 9,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,33</t>
+          <t>3,16; 7,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,06</t>
+          <t>5,7; 10,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,37</t>
+          <t>5,76; 10,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 10,53</t>
+          <t>5,24; 10,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,03</t>
+          <t>6,06; 11,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,15</t>
+          <t>7,49; 11,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,87</t>
+          <t>4,63; 7,69</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,63</t>
+          <t>5,06; 8,84</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,6</t>
+          <t>5,49; 8,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,01</t>
+          <t>7,02; 10,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,22; 9,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,3</t>
+          <t>9,96; 12,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,41</t>
+          <t>8,35; 10,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 14,22</t>
+          <t>11,71; 14,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,41; 15,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 21,23</t>
+          <t>18,46; 21,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 19,18</t>
+          <t>16,25; 19,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 20,44</t>
+          <t>17,37; 20,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,74; 12,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 16,47</t>
+          <t>14,71; 16,51</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 14,46</t>
+          <t>12,69; 14,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 17,09</t>
+          <t>15,24; 17,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P9_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P9_2_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,47; 17,8</t>
+          <t>13,44; 17,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,53; 26,04</t>
+          <t>20,51; 26,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,6</t>
+          <t>17,9; 23,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,97; 25,89</t>
+          <t>21,02; 26,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,71; 38,16</t>
+          <t>32,74; 38,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,82; 38,19</t>
+          <t>31,99; 38,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,36; 21,84</t>
+          <t>18,24; 21,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,43; 32,28</t>
+          <t>28,43; 32,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,73; 31,23</t>
+          <t>26,56; 30,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,21</t>
+          <t>4,01; 6,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,13; 7,36</t>
+          <t>5,22; 7,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,48</t>
+          <t>5,25; 7,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,82; 10,64</t>
+          <t>7,79; 10,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,74; 12,88</t>
+          <t>9,67; 12,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,1</t>
+          <t>10,01; 12,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,93</t>
+          <t>6,22; 7,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 9,61</t>
+          <t>7,6; 9,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,89; 9,87</t>
+          <t>7,86; 9,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,39</t>
+          <t>2,61; 6,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,06</t>
+          <t>3,69; 8,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,39</t>
+          <t>3,11; 7,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 10,89</t>
+          <t>5,77; 11,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,42</t>
+          <t>5,22; 10,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,06; 11,61</t>
+          <t>6,45; 11,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,63; 7,69</t>
+          <t>4,62; 7,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,84</t>
+          <t>4,9; 8,78</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 8,78</t>
+          <t>5,39; 8,67</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 9,11</t>
+          <t>7,3; 9,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,11</t>
+          <t>9,88; 12,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,35; 10,32</t>
+          <t>8,19; 10,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 15,93</t>
+          <t>13,53; 15,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,42</t>
+          <t>18,47; 21,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 19,17</t>
+          <t>16,38; 19,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 12,29</t>
+          <t>10,72; 12,27</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,71; 16,51</t>
+          <t>14,6; 16,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 14,42</t>
+          <t>12,77; 14,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
